--- a/final_project/예측 코드- Python/예측 코드- Python/GDP.xlsx
+++ b/final_project/예측 코드- Python/예측 코드- Python/GDP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjaud\OneDrive\바탕 화면\예측 코드- Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\J_plus_D\예측 코드- Python\예측 코드- Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B7624C-32D6-4473-BCA6-C318219BBF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12705" yWindow="0" windowWidth="12975" windowHeight="15375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>실질 GDP</t>
   </si>
@@ -203,21 +202,338 @@
   </si>
   <si>
     <t>2019년 10월</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 01월</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 02월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 03월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 04월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 05월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 06월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 07월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 08월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 09월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>023년 12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -244,8 +560,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,7 +750,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -440,7 +759,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -715,21 +1034,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BU2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AZ1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2:BI2"/>
+      <selection activeCell="BJ1" sqref="BJ1:BU1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +1229,44 @@
       <c r="BI1" t="s">
         <v>43</v>
       </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1452,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>

--- a/final_project/예측 코드- Python/예측 코드- Python/GDP.xlsx
+++ b/final_project/예측 코드- Python/예측 코드- Python/GDP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\J_plus_D\예측 코드- Python\예측 코드- Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\Jung_eun\final_project\예측 코드- Python\예측 코드- Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1038,8 +1038,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="BJ1" sqref="BJ1:BU1"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="BS13" sqref="BS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1379,81 +1379,117 @@
         <v>1940.7</v>
       </c>
       <c r="AL2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AM2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AN2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AO2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AP2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AQ2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AR2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AS2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AT2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AU2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AV2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AW2">
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="AX2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AO2">
+      <c r="BA2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AP2">
+      <c r="BB2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AQ2">
+      <c r="BC2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AR2">
+      <c r="BD2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AS2">
+      <c r="BE2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AT2">
+      <c r="BF2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AU2">
+      <c r="BG2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AV2">
+      <c r="BH2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AW2">
+      <c r="BI2">
         <v>2161.8000000000002</v>
       </c>
-      <c r="AX2">
+      <c r="BJ2">
         <v>2236.3000000000002</v>
       </c>
-      <c r="AY2">
+      <c r="BK2">
         <v>2236.3000000000002</v>
       </c>
-      <c r="AZ2">
+      <c r="BL2">
         <v>2236.3000000000002</v>
       </c>
-      <c r="BA2">
+      <c r="BM2">
         <v>2236.3000000000002</v>
       </c>
-      <c r="BB2">
+      <c r="BN2">
         <v>2236.3000000000002</v>
       </c>
-      <c r="BC2">
+      <c r="BO2">
         <v>2236.3000000000002</v>
       </c>
-      <c r="BD2">
+      <c r="BP2">
         <v>2236.3000000000002</v>
       </c>
-      <c r="BE2">
+      <c r="BQ2">
         <v>2236.3000000000002</v>
       </c>
-      <c r="BF2">
+      <c r="BR2">
         <v>2236.3000000000002</v>
       </c>
-      <c r="BG2">
+      <c r="BS2">
         <v>2236.3000000000002</v>
       </c>
-      <c r="BH2">
+      <c r="BT2">
         <v>2236.3000000000002</v>
       </c>
-      <c r="BI2">
+      <c r="BU2">
         <v>2236.3000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>